--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Girardin.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Girardin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CA951B-C457-487D-93AA-32E1D5E97DCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671E7991-FDD6-4DAC-B2CD-407619836FFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5834,10 +5834,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1830" topLeftCell="A3" activePane="bottomLeft"/>
-      <selection activeCell="X2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" activeCell="U67" sqref="U67"/>
+      <selection activeCell="P2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="X34" sqref="X34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9749,7 +9749,7 @@
         <v>107</v>
       </c>
       <c r="AH34" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM34" s="11" t="s">
         <v>233</v>
@@ -9865,7 +9865,7 @@
         <v>107</v>
       </c>
       <c r="AH35" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM35" s="11" t="s">
         <v>233</v>
@@ -9981,7 +9981,7 @@
         <v>107</v>
       </c>
       <c r="AH36" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM36" s="11" t="s">
         <v>233</v>
@@ -10097,7 +10097,7 @@
         <v>107</v>
       </c>
       <c r="AH37" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM37" s="11" t="s">
         <v>233</v>
@@ -22898,6 +22898,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -23011,33 +23026,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -23058,9 +23050,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>